--- a/va_facility_data_2025-02-20/San Jose VA Clinic - Facility Data.xlsx"; filename*=UTF-8''San%20Jose%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/San Jose VA Clinic - Facility Data.xlsx"; filename*=UTF-8''San%20Jose%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R338adea3d2864a44ad8c500ab2d718fd"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R735c45032b4548238ff85ba392535422"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Reb059a3faecd498aa4b7d40b344a540b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6edc95aeb9b24b7c93c14d41d7f25416"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R51d8e74777c249c9ac773c5091c600f7"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfaf2b4caf57c472680276e258f3aa571"/>
   </x:sheets>
 </x:workbook>
 </file>
